--- a/VentasLETTAHalloween.xlsx
+++ b/VentasLETTAHalloween.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AAA/Documents/GitHub/ss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31C4D8-7C8F-5D42-AAF2-5148B8CBA763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A1ED2-50DD-0140-8657-2DA8043327E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="16380" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="218">
   <si>
     <t>Type</t>
   </si>
@@ -682,6 +682,12 @@
   </si>
   <si>
     <t>HAW0089</t>
+  </si>
+  <si>
+    <t>Color Negro</t>
+  </si>
+  <si>
+    <t>Color Rojo</t>
   </si>
 </sst>
 </file>
@@ -1174,90 +1180,6 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{5F3D975B-D499-0B4A-BC52-CB2EEB35894A}"/>
   </cellStyles>
   <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2810,6 +2732,90 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -6917,97 +6923,97 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C3F7A77-AA9A-9049-9BD3-D03FDDAB2B95}" name="STOCK" displayName="STOCK" ref="A1:AD91" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C3F7A77-AA9A-9049-9BD3-D03FDDAB2B95}" name="STOCK" displayName="STOCK" ref="A1:AD91" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
   <autoFilter ref="A1:AD91" xr:uid="{2C3F7A77-AA9A-9049-9BD3-D03FDDAB2B95}"/>
   <tableColumns count="30">
-    <tableColumn id="28" xr3:uid="{0CDE7E80-246F-9642-A518-1282133B0DD5}" name="Code" dataDxfId="55"/>
-    <tableColumn id="1" xr3:uid="{320C9ACC-DA44-5349-B594-66D7A9C044C5}" name="Foto" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{F2B89EA9-E152-AC45-BAD1-18B8A1A78055}" name="Type" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{E079105E-5F52-DC43-8691-683EFDF2D6A8}" name="Category" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{DC8749DD-8D68-5641-B45F-3231107C111B}" name="Nombre del artículo" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5ACC1848-DB9A-1D4E-8959-7ACE34F9684E}" name="Talla" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{64C559F8-872F-9C40-926B-1FBAD12F046B}" name="Brand" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{AC24821D-9AD1-3A46-A2DD-6430B612E786}" name="Precio" dataDxfId="48">
+    <tableColumn id="28" xr3:uid="{0CDE7E80-246F-9642-A518-1282133B0DD5}" name="Code" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{320C9ACC-DA44-5349-B594-66D7A9C044C5}" name="Foto" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{F2B89EA9-E152-AC45-BAD1-18B8A1A78055}" name="Type" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E079105E-5F52-DC43-8691-683EFDF2D6A8}" name="Category" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{DC8749DD-8D68-5641-B45F-3231107C111B}" name="Nombre del artículo" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{5ACC1848-DB9A-1D4E-8959-7ACE34F9684E}" name="Talla" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{64C559F8-872F-9C40-926B-1FBAD12F046B}" name="Brand" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{AC24821D-9AD1-3A46-A2DD-6430B612E786}" name="Precio" dataDxfId="37">
       <calculatedColumnFormula>STOCK[[#This Row],[Precio Final]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{99FED3F8-23A2-7D44-A402-D8E46215D411}" name="Pricing 1" dataDxfId="47">
+    <tableColumn id="13" xr3:uid="{99FED3F8-23A2-7D44-A402-D8E46215D411}" name="Pricing 1" dataDxfId="36">
       <calculatedColumnFormula>STOCK[[#This Row],[Precio Venta Ideal (x1.5)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A92ECA4D-AC2B-A744-AA0A-A77850574C37}" name="Entradas" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{616B21E5-25FD-B94F-97F9-58B8EDC40DE6}" name="Salidas" dataDxfId="45">
+    <tableColumn id="15" xr3:uid="{A92ECA4D-AC2B-A744-AA0A-A77850574C37}" name="Entradas" dataDxfId="35"/>
+    <tableColumn id="16" xr3:uid="{616B21E5-25FD-B94F-97F9-58B8EDC40DE6}" name="Salidas" dataDxfId="34">
       <calculatedColumnFormula>SUMIFS(VENTAS[Cantidad],VENTAS[Código del producto Vendido],STOCK[[#This Row],[Code]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{9D7AB1D3-B97D-A245-B71B-95057FAAC447}" name="Stock Actual" dataDxfId="44">
+    <tableColumn id="17" xr3:uid="{9D7AB1D3-B97D-A245-B71B-95057FAAC447}" name="Stock Actual" dataDxfId="33">
       <calculatedColumnFormula>STOCK[[#This Row],[Entradas]]-STOCK[[#This Row],[Salidas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{CD73F642-108F-9C4A-8F93-51BCE0CF89A6}" name="Comisión 10%" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{CD73F642-108F-9C4A-8F93-51BCE0CF89A6}" name="Comisión 10%" dataDxfId="32">
       <calculatedColumnFormula>STOCK[[#This Row],[Precio Final]]*10%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{C19FC3A5-7F68-BD46-AB51-847A5CF1C420}" name="Costo Unitario (MXN)" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{AA7C9989-9B9A-DE41-84B3-E777B0CFFC80}" name="USD -&gt; MXN" dataDxfId="41"/>
-    <tableColumn id="30" xr3:uid="{CE4D401D-D309-874C-AE19-2ED6BF0CF5A9}" name="Column1" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{47CEAB57-BA58-3A4E-8836-7547C0A8670B}" name="Costo Unitario (USD)" dataDxfId="39">
+    <tableColumn id="18" xr3:uid="{C19FC3A5-7F68-BD46-AB51-847A5CF1C420}" name="Costo Unitario (MXN)" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{AA7C9989-9B9A-DE41-84B3-E777B0CFFC80}" name="USD -&gt; MXN" dataDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{CE4D401D-D309-874C-AE19-2ED6BF0CF5A9}" name="Column1" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{47CEAB57-BA58-3A4E-8836-7547C0A8670B}" name="Costo Unitario (USD)" dataDxfId="28">
       <calculatedColumnFormula>N2/O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{6044B009-325A-1E48-996D-3795B08AD37D}" name="Peso (g)" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{3FE36986-70B1-7045-B79B-1F306E510CCC}" name="Precio Envío Kilogramo (USD)" dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{8E0BCE09-A215-4E49-9ADF-CC46A3A57580}" name="Costo Envío (USD)" dataDxfId="36">
+    <tableColumn id="21" xr3:uid="{6044B009-325A-1E48-996D-3795B08AD37D}" name="Peso (g)" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{3FE36986-70B1-7045-B79B-1F306E510CCC}" name="Precio Envío Kilogramo (USD)" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{8E0BCE09-A215-4E49-9ADF-CC46A3A57580}" name="Costo Envío (USD)" dataDxfId="25">
       <calculatedColumnFormula>STOCK[[#This Row],[Peso (g)]]*STOCK[[#This Row],[Precio Envío Kilogramo (USD)]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{D2FD5BA1-0777-4446-96AC-0A15858284E3}" name="Costo total" dataDxfId="35">
+    <tableColumn id="25" xr3:uid="{D2FD5BA1-0777-4446-96AC-0A15858284E3}" name="Costo total" dataDxfId="24">
       <calculatedColumnFormula>STOCK[[#This Row],[Costo Unitario (USD)]]+STOCK[[#This Row],[Costo Envío (USD)]]+STOCK[[#This Row],[Comisión 10%]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{0CF8E044-9EA3-C143-9605-5C9780CD5463}" name="Precio Venta Ideal (x1.5)" dataDxfId="34">
+    <tableColumn id="26" xr3:uid="{0CF8E044-9EA3-C143-9605-5C9780CD5463}" name="Precio Venta Ideal (x1.5)" dataDxfId="23">
       <calculatedColumnFormula>ROUNDUP(U2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{F696554F-9947-834E-9EAD-4D4726C2FF95}" name="Precio Final" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{BC945D69-9F4B-7A40-8582-5050E162AF5D}" name="Ganancia Unitaria" dataDxfId="32">
+    <tableColumn id="14" xr3:uid="{F696554F-9947-834E-9EAD-4D4726C2FF95}" name="Precio Final" dataDxfId="22"/>
+    <tableColumn id="27" xr3:uid="{BC945D69-9F4B-7A40-8582-5050E162AF5D}" name="Ganancia Unitaria" dataDxfId="21">
       <calculatedColumnFormula>STOCK[[#This Row],[Precio Final]]-STOCK[[#This Row],[Costo total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1FAF5B63-ACBA-B242-90DB-527D9503C481}" name="Ganancia x Cant Ventas" dataDxfId="31">
+    <tableColumn id="9" xr3:uid="{1FAF5B63-ACBA-B242-90DB-527D9503C481}" name="Ganancia x Cant Ventas" dataDxfId="20">
       <calculatedColumnFormula>STOCK[[#This Row],[Ganancia Unitaria]]*STOCK[[#This Row],[Salidas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C756BB23-1EDA-C348-A3F9-8A96A71F7019}" name="Detalles de la Compra" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{26BCEB9F-AB2B-5E44-9823-BCD18B1CB208}" name="Comisión Bazar 25%" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{87671A5C-EC68-EF4A-9618-6A934F304BAD}" name="Gastos totales" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{C756BB23-1EDA-C348-A3F9-8A96A71F7019}" name="Detalles de la Compra" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{26BCEB9F-AB2B-5E44-9823-BCD18B1CB208}" name="Comisión Bazar 25%" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{87671A5C-EC68-EF4A-9618-6A934F304BAD}" name="Gastos totales" dataDxfId="17">
       <calculatedColumnFormula>STOCK[[#This Row],[Costo total]]*STOCK[[#This Row],[Entradas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{A10D49C4-19A5-574A-B9F1-0BFB93A95AD3}" name="Valor Stock Actual" dataDxfId="27">
+    <tableColumn id="24" xr3:uid="{A10D49C4-19A5-574A-B9F1-0BFB93A95AD3}" name="Valor Stock Actual" dataDxfId="16">
       <calculatedColumnFormula>STOCK[[#This Row],[Stock Actual]]*STOCK[[#This Row],[Costo total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{814176B4-7D27-FC45-8C85-CA4821BC7959}" name="Precio Promocion" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{814176B4-7D27-FC45-8C85-CA4821BC7959}" name="Precio Promocion" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}" name="VENTAS" displayName="VENTAS" ref="A2:M4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}" name="VENTAS" displayName="VENTAS" ref="A2:M4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:M4" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}"/>
   <tableColumns count="13">
-    <tableColumn id="10" xr3:uid="{254F3DD0-681F-D044-B8E6-8248EFC4ED42}" name="Fecha" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{38627A9A-B916-AF4B-908A-31BF87EAFB17}" name="Detalle de compra" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{9EDBBC6B-BCEB-D240-81DB-54EF41D3621F}" name="Nombre del Cliente" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{D2D2C60C-24F5-A14F-A6D4-FACCA6B9AFC1}" name="Nombre del Gestor" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1F529DD5-D1C2-4249-BF1F-4D042CBB0180}" name="Código del producto Vendido" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{629DE25C-9AF7-2D4D-8069-354EDE47972C}" name="Descripcion" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{254F3DD0-681F-D044-B8E6-8248EFC4ED42}" name="Fecha" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{38627A9A-B916-AF4B-908A-31BF87EAFB17}" name="Detalle de compra" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9EDBBC6B-BCEB-D240-81DB-54EF41D3621F}" name="Nombre del Cliente" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{D2D2C60C-24F5-A14F-A6D4-FACCA6B9AFC1}" name="Nombre del Gestor" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1F529DD5-D1C2-4249-BF1F-4D042CBB0180}" name="Código del producto Vendido" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{629DE25C-9AF7-2D4D-8069-354EDE47972C}" name="Descripcion" dataDxfId="7">
       <calculatedColumnFormula>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],5,FALSE),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2D8E74F0-BFC9-3345-9C72-753D75E3B370}" name="Cantidad" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{36BE525D-D788-A445-9780-12D5093CE733}" name="Precio Venta" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C7149008-C071-C449-8FD5-0D78B763144A}" name="Total" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{2D8E74F0-BFC9-3345-9C72-753D75E3B370}" name="Cantidad" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{36BE525D-D788-A445-9780-12D5093CE733}" name="Precio Venta" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{C7149008-C071-C449-8FD5-0D78B763144A}" name="Total" dataDxfId="4">
       <calculatedColumnFormula>VENTAS[[#This Row],[Cantidad]]*VENTAS[[#This Row],[Precio Venta]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F982F0FF-F144-0E44-9EA6-4B1C618EBFC1}" name="Comisión 10%" dataDxfId="14">
+    <tableColumn id="17" xr3:uid="{F982F0FF-F144-0E44-9EA6-4B1C618EBFC1}" name="Comisión 10%" dataDxfId="3">
       <calculatedColumnFormula>IF(VENTAS[[#This Row],[Nombre del Gestor]]&gt;1,  VENTAS[[#This Row],[Total]]*10%, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8DAE9700-3722-EE49-8126-9BBFB9E8BC1C}" name="Costo SIN Comision" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{8DAE9700-3722-EE49-8126-9BBFB9E8BC1C}" name="Costo SIN Comision" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],16,FALSE)*VENTAS[[#This Row],[Cantidad]] + VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],19,FALSE)*VENTAS[[#This Row],[Cantidad]],VENTAS[[#This Row],[Total]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0AF0F1FD-94AA-9344-8CD7-35AB106FDE9E}" name="Ganancia" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{0AF0F1FD-94AA-9344-8CD7-35AB106FDE9E}" name="Ganancia" dataDxfId="1">
       <calculatedColumnFormula>VENTAS[[#This Row],[Total]]-VENTAS[[#This Row],[Comisión 10%]]-VENTAS[[#This Row],[Costo SIN Comision]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2430B914-035B-E547-A84A-68B44DC4539C}" name="Observaciones" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{2430B914-035B-E547-A84A-68B44DC4539C}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8091,9 +8097,9 @@
   <dimension ref="A1:AD95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M47" sqref="A47:XFD47"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="20" customHeight="1"/>
@@ -11955,7 +11961,7 @@
         <v>111</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16">
@@ -12038,7 +12044,7 @@
         <v>201</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16">
@@ -14711,7 +14717,7 @@
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
       <c r="Q80" s="16" t="e">
-        <f>N80/O80</f>
+        <f t="shared" ref="Q80:Q90" si="0">N80/O80</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R80" s="17"/>
@@ -14784,7 +14790,7 @@
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
       <c r="Q81" s="16" t="e">
-        <f>N81/O81</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R81" s="17"/>
@@ -14857,7 +14863,7 @@
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
       <c r="Q82" s="16" t="e">
-        <f>N82/O82</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R82" s="17"/>
@@ -14930,7 +14936,7 @@
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
       <c r="Q83" s="16" t="e">
-        <f>N83/O83</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R83" s="17"/>
@@ -15003,7 +15009,7 @@
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
       <c r="Q84" s="16" t="e">
-        <f>N84/O84</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R84" s="17"/>
@@ -15076,7 +15082,7 @@
       <c r="O85" s="16"/>
       <c r="P85" s="16"/>
       <c r="Q85" s="16" t="e">
-        <f>N85/O85</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R85" s="17"/>
@@ -15090,7 +15096,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V85" s="16" t="e">
-        <f>ROUNDUP(U85,0)</f>
+        <f t="shared" ref="V85:V90" si="1">ROUNDUP(U85,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W85" s="16"/>
@@ -15149,7 +15155,7 @@
       <c r="O86" s="16"/>
       <c r="P86" s="16"/>
       <c r="Q86" s="16" t="e">
-        <f>N86/O86</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R86" s="17"/>
@@ -15163,7 +15169,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V86" s="16" t="e">
-        <f>ROUNDUP(U86,0)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W86" s="16"/>
@@ -15222,7 +15228,7 @@
       <c r="O87" s="16"/>
       <c r="P87" s="16"/>
       <c r="Q87" s="16" t="e">
-        <f>N87/O87</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R87" s="17"/>
@@ -15236,7 +15242,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V87" s="16" t="e">
-        <f>ROUNDUP(U87,0)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W87" s="16"/>
@@ -15295,7 +15301,7 @@
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16" t="e">
-        <f>N88/O88</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R88" s="17"/>
@@ -15309,7 +15315,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V88" s="16" t="e">
-        <f>ROUNDUP(U88,0)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W88" s="16"/>
@@ -15368,7 +15374,7 @@
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16" t="e">
-        <f>N89/O89</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R89" s="17"/>
@@ -15382,7 +15388,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V89" s="16" t="e">
-        <f>ROUNDUP(U89,0)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W89" s="16"/>
@@ -15441,7 +15447,7 @@
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16" t="e">
-        <f>N90/O90</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R90" s="17"/>
@@ -15455,7 +15461,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V90" s="16" t="e">
-        <f>ROUNDUP(U90,0)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W90" s="16"/>
@@ -15680,53 +15686,53 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="L2:M90">
-    <cfRule type="cellIs" dxfId="10" priority="198" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:Y90 H2:U90">
-    <cfRule type="expression" dxfId="8" priority="196">
+    <cfRule type="expression" dxfId="57" priority="196">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B90">
-    <cfRule type="expression" dxfId="7" priority="195">
+    <cfRule type="expression" dxfId="56" priority="195">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:S90">
-    <cfRule type="containsBlanks" dxfId="6" priority="194">
+    <cfRule type="containsBlanks" dxfId="55" priority="194">
       <formula>LEN(TRIM(N2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:G90">
-    <cfRule type="expression" dxfId="5" priority="192">
+    <cfRule type="expression" dxfId="54" priority="192">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C90">
-    <cfRule type="expression" dxfId="4" priority="191">
+    <cfRule type="expression" dxfId="53" priority="191">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V90">
-    <cfRule type="expression" dxfId="3" priority="190">
+    <cfRule type="expression" dxfId="52" priority="190">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B90">
-    <cfRule type="duplicateValues" dxfId="2" priority="2717"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2717"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z90">
-    <cfRule type="expression" dxfId="1" priority="55">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AD90">
-    <cfRule type="expression" dxfId="0" priority="54">
+    <cfRule type="expression" dxfId="49" priority="54">
       <formula>$L2=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/VentasLETTAHalloween.xlsx
+++ b/VentasLETTAHalloween.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AAA/Documents/GitHub/ss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE33C27-BD58-EF4D-BBF4-DB8E633A2350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858A692-C038-9349-9F8F-AD090F2CCC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="266">
   <si>
     <t>Type</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Precio Venta</t>
-  </si>
-  <si>
-    <t>T0003</t>
   </si>
   <si>
     <t>SHEIN</t>
@@ -829,6 +826,12 @@
   </si>
   <si>
     <t>HAW0108</t>
+  </si>
+  <si>
+    <t>Reyima</t>
+  </si>
+  <si>
+    <t>Sarai</t>
   </si>
 </sst>
 </file>
@@ -7076,8 +7079,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}" name="VENTAS" displayName="VENTAS" ref="A2:M4" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:M4" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}" name="VENTAS" displayName="VENTAS" ref="A2:M6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:M6" xr:uid="{E74EA521-20AF-4144-BFD6-B4CAB243FD5C}"/>
   <tableColumns count="13">
     <tableColumn id="10" xr3:uid="{254F3DD0-681F-D044-B8E6-8248EFC4ED42}" name="Fecha" dataDxfId="17"/>
     <tableColumn id="1" xr3:uid="{38627A9A-B916-AF4B-908A-31BF87EAFB17}" name="Detalle de compra" dataDxfId="16"/>
@@ -8184,10 +8187,10 @@
   </sheetPr>
   <dimension ref="A1:AD119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="20" customHeight="1"/>
@@ -8226,7 +8229,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>0</v>
@@ -8235,16 +8238,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>3</v>
@@ -8259,7 +8262,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>9</v>
@@ -8268,7 +8271,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="22" t="s">
         <v>10</v>
@@ -8283,52 +8286,52 @@
         <v>17</v>
       </c>
       <c r="U1" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W1" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="Z1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="22" t="s">
-        <v>49</v>
-      </c>
       <c r="AD1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16">
@@ -8398,20 +8401,20 @@
     </row>
     <row r="3" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16">
@@ -8481,20 +8484,20 @@
     </row>
     <row r="4" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16">
@@ -8564,20 +8567,20 @@
     </row>
     <row r="5" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16">
@@ -8647,20 +8650,20 @@
     </row>
     <row r="6" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16">
@@ -8730,20 +8733,20 @@
     </row>
     <row r="7" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16">
@@ -8813,20 +8816,20 @@
     </row>
     <row r="8" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -8896,20 +8899,20 @@
     </row>
     <row r="9" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16">
@@ -8979,20 +8982,20 @@
     </row>
     <row r="10" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16">
@@ -9062,20 +9065,20 @@
     </row>
     <row r="11" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16">
@@ -9145,20 +9148,20 @@
     </row>
     <row r="12" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16">
@@ -9174,11 +9177,11 @@
       </c>
       <c r="K12" s="17">
         <f>SUMIFS(VENTAS[Cantidad],VENTAS[Código del producto Vendido],STOCK[[#This Row],[Code]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="17">
         <f>STOCK[[#This Row],[Entradas]]-STOCK[[#This Row],[Salidas]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="16">
         <f>STOCK[[#This Row],[Precio Final]]*10%</f>
@@ -9212,7 +9215,7 @@
       </c>
       <c r="Y12" s="16">
         <f>STOCK[[#This Row],[Ganancia Unitaria]]*STOCK[[#This Row],[Salidas]]</f>
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="Z12" s="57"/>
       <c r="AA12" s="16"/>
@@ -9222,26 +9225,26 @@
       </c>
       <c r="AC12" s="16">
         <f>STOCK[[#This Row],[Stock Actual]]*STOCK[[#This Row],[Costo total]]</f>
-        <v>23.6</v>
+        <v>11.8</v>
       </c>
       <c r="AD12" s="16"/>
     </row>
     <row r="14" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16">
@@ -9311,20 +9314,20 @@
     </row>
     <row r="16" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16">
@@ -9394,20 +9397,20 @@
     </row>
     <row r="17" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16">
@@ -9477,20 +9480,20 @@
     </row>
     <row r="18" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
@@ -9560,20 +9563,20 @@
     </row>
     <row r="19" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16">
@@ -9643,20 +9646,20 @@
     </row>
     <row r="20" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
@@ -9726,20 +9729,20 @@
     </row>
     <row r="21" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
@@ -9809,20 +9812,20 @@
     </row>
     <row r="22" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
@@ -9892,20 +9895,20 @@
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
@@ -9975,20 +9978,20 @@
     </row>
     <row r="24" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16">
@@ -10058,20 +10061,20 @@
     </row>
     <row r="25" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" s="55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16">
@@ -10141,20 +10144,20 @@
     </row>
     <row r="26" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16">
@@ -10224,20 +10227,20 @@
     </row>
     <row r="27" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="4">
         <f>STOCK[[#This Row],[Precio Final]]</f>
@@ -10301,20 +10304,20 @@
     </row>
     <row r="28" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16">
@@ -10384,20 +10387,20 @@
     </row>
     <row r="29" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16">
@@ -10467,20 +10470,20 @@
     </row>
     <row r="30" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16">
@@ -10550,20 +10553,20 @@
     </row>
     <row r="32" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16">
@@ -10633,20 +10636,20 @@
     </row>
     <row r="33" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16">
@@ -10716,20 +10719,20 @@
     </row>
     <row r="34" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16">
@@ -10797,20 +10800,20 @@
     </row>
     <row r="35" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="55" t="s">
         <v>109</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>110</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16">
@@ -10880,20 +10883,20 @@
     </row>
     <row r="36" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16">
@@ -10963,20 +10966,20 @@
     </row>
     <row r="37" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16">
@@ -11044,20 +11047,20 @@
     </row>
     <row r="38" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16">
@@ -11127,20 +11130,20 @@
     </row>
     <row r="39" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16">
@@ -11210,20 +11213,20 @@
     </row>
     <row r="40" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="53"/>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16">
@@ -11293,20 +11296,20 @@
     </row>
     <row r="41" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B41" s="53"/>
       <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16">
@@ -11376,20 +11379,20 @@
     </row>
     <row r="42" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" s="53"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16">
@@ -11459,20 +11462,20 @@
     </row>
     <row r="43" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16">
@@ -11542,20 +11545,20 @@
     </row>
     <row r="45" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16">
@@ -11625,20 +11628,20 @@
     </row>
     <row r="46" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16">
@@ -11708,20 +11711,20 @@
     </row>
     <row r="47" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="53"/>
       <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="16">
@@ -11791,20 +11794,20 @@
     </row>
     <row r="48" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48" s="53"/>
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16">
@@ -11874,20 +11877,20 @@
     </row>
     <row r="49" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16">
@@ -11957,20 +11960,20 @@
     </row>
     <row r="51" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16">
@@ -12040,20 +12043,20 @@
     </row>
     <row r="52" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16">
@@ -12123,20 +12126,20 @@
     </row>
     <row r="53" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" s="53"/>
       <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16">
@@ -12206,20 +12209,20 @@
     </row>
     <row r="54" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="53"/>
       <c r="C54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16">
@@ -12235,11 +12238,11 @@
       </c>
       <c r="K54" s="17">
         <f>SUMIFS(VENTAS[Cantidad],VENTAS[Código del producto Vendido],STOCK[[#This Row],[Code]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="17">
         <f>STOCK[[#This Row],[Entradas]]-STOCK[[#This Row],[Salidas]]</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54" s="16">
         <f>STOCK[[#This Row],[Precio Final]]*10%</f>
@@ -12273,7 +12276,7 @@
       </c>
       <c r="Y54" s="16">
         <f>STOCK[[#This Row],[Ganancia Unitaria]]*STOCK[[#This Row],[Salidas]]</f>
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Z54" s="57"/>
       <c r="AA54" s="16"/>
@@ -12283,26 +12286,26 @@
       </c>
       <c r="AC54" s="16">
         <f>STOCK[[#This Row],[Stock Actual]]*STOCK[[#This Row],[Costo total]]</f>
-        <v>30.299999999999997</v>
+        <v>25.25</v>
       </c>
       <c r="AD54" s="16"/>
     </row>
     <row r="55" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16">
@@ -12372,20 +12375,20 @@
     </row>
     <row r="56" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F56" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16">
@@ -12455,20 +12458,20 @@
     </row>
     <row r="57" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F57" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16">
@@ -12538,20 +12541,20 @@
     </row>
     <row r="58" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F58" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16">
@@ -12621,23 +12624,23 @@
     </row>
     <row r="59" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H59" s="16">
         <f>STOCK[[#This Row],[Precio Final]]</f>
@@ -12706,20 +12709,20 @@
     </row>
     <row r="60" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="53"/>
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="55" t="s">
         <v>105</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>106</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16">
@@ -12789,18 +12792,18 @@
     </row>
     <row r="61" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="16"/>
       <c r="D61" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16">
@@ -12842,7 +12845,7 @@
         <v>11.450000000000001</v>
       </c>
       <c r="V61" s="16">
-        <f>ROUNDUP(U61,0)</f>
+        <f t="shared" ref="V61:V90" si="0">ROUNDUP(U61,0)</f>
         <v>12</v>
       </c>
       <c r="W61" s="16">
@@ -12870,18 +12873,18 @@
     </row>
     <row r="62" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="16"/>
       <c r="D62" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16">
@@ -12923,7 +12926,7 @@
         <v>8.5</v>
       </c>
       <c r="V62" s="16">
-        <f>ROUNDUP(U62,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W62" s="16">
@@ -12951,18 +12954,18 @@
     </row>
     <row r="63" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="16"/>
       <c r="D63" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16">
@@ -13004,7 +13007,7 @@
         <v>3.6</v>
       </c>
       <c r="V63" s="16">
-        <f>ROUNDUP(U63,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W63" s="16">
@@ -13032,18 +13035,18 @@
     </row>
     <row r="64" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" s="53"/>
       <c r="C64" s="16"/>
       <c r="D64" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16">
@@ -13051,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J64" s="56"/>
       <c r="K64" s="17">
@@ -13083,7 +13086,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V64" s="16" t="e">
-        <f>ROUNDUP(U64,0)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W64" s="16"/>
@@ -13109,18 +13112,18 @@
     </row>
     <row r="65" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="53"/>
       <c r="C65" s="16"/>
       <c r="D65" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="16">
@@ -13162,7 +13165,7 @@
         <v>3.5</v>
       </c>
       <c r="V65" s="16">
-        <f>ROUNDUP(U65,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W65" s="16">
@@ -13190,18 +13193,18 @@
     </row>
     <row r="66" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" s="53"/>
       <c r="C66" s="16"/>
       <c r="D66" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16">
@@ -13243,7 +13246,7 @@
         <v>14</v>
       </c>
       <c r="V66" s="16">
-        <f>ROUNDUP(U66,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="W66" s="16">
@@ -13271,18 +13274,18 @@
     </row>
     <row r="67" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67" s="53"/>
       <c r="C67" s="16"/>
       <c r="D67" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16">
@@ -13324,7 +13327,7 @@
         <v>4.79</v>
       </c>
       <c r="V67" s="16">
-        <f>ROUNDUP(U67,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W67" s="16">
@@ -13352,18 +13355,18 @@
     </row>
     <row r="68" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" s="53"/>
       <c r="C68" s="16"/>
       <c r="D68" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E68" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="55" t="s">
         <v>224</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>225</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16">
@@ -13405,7 +13408,7 @@
         <v>17.41</v>
       </c>
       <c r="V68" s="16">
-        <f>ROUNDUP(U68,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="W68" s="16">
@@ -13433,18 +13436,18 @@
     </row>
     <row r="69" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A69" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B69" s="53"/>
       <c r="C69" s="16"/>
       <c r="D69" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16">
@@ -13486,7 +13489,7 @@
         <v>6.71</v>
       </c>
       <c r="V69" s="16">
-        <f>ROUNDUP(U69,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="W69" s="16">
@@ -13514,18 +13517,18 @@
     </row>
     <row r="70" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B70" s="53"/>
       <c r="C70" s="16"/>
       <c r="D70" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16">
@@ -13567,7 +13570,7 @@
         <v>2.86</v>
       </c>
       <c r="V70" s="16">
-        <f>ROUNDUP(U70,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="W70" s="16">
@@ -13595,18 +13598,18 @@
     </row>
     <row r="71" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="16"/>
       <c r="D71" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="16">
@@ -13648,7 +13651,7 @@
         <v>13.39</v>
       </c>
       <c r="V71" s="16">
-        <f>ROUNDUP(U71,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="W71" s="16">
@@ -13676,18 +13679,18 @@
     </row>
     <row r="72" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="16"/>
       <c r="D72" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E72" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="55" t="s">
         <v>231</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>232</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16">
@@ -13729,7 +13732,7 @@
         <v>13.39</v>
       </c>
       <c r="V72" s="16">
-        <f>ROUNDUP(U72,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="W72" s="16">
@@ -13757,18 +13760,18 @@
     </row>
     <row r="73" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="16"/>
       <c r="D73" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="16">
@@ -13810,7 +13813,7 @@
         <v>11.14</v>
       </c>
       <c r="V73" s="16">
-        <f>ROUNDUP(U73,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="W73" s="16">
@@ -13838,18 +13841,18 @@
     </row>
     <row r="74" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="16"/>
       <c r="D74" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F74" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="16">
@@ -13891,7 +13894,7 @@
         <v>4.8</v>
       </c>
       <c r="V74" s="16">
-        <f>ROUNDUP(U74,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W74" s="16">
@@ -13919,18 +13922,18 @@
     </row>
     <row r="75" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="16"/>
       <c r="D75" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F75" s="55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="16">
@@ -13972,7 +13975,7 @@
         <v>14.2</v>
       </c>
       <c r="V75" s="16">
-        <f>ROUNDUP(U75,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="W75" s="16">
@@ -14000,18 +14003,18 @@
     </row>
     <row r="76" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="53"/>
       <c r="C76" s="16"/>
       <c r="D76" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F76" s="55" t="s">
         <v>238</v>
-      </c>
-      <c r="F76" s="55" t="s">
-        <v>239</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16">
@@ -14053,7 +14056,7 @@
         <v>14.2</v>
       </c>
       <c r="V76" s="16">
-        <f>ROUNDUP(U76,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="W76" s="16">
@@ -14081,18 +14084,18 @@
     </row>
     <row r="77" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B77" s="53"/>
       <c r="C77" s="16"/>
       <c r="D77" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F77" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="16">
@@ -14134,7 +14137,7 @@
         <v>12.8</v>
       </c>
       <c r="V77" s="16">
-        <f>ROUNDUP(U77,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="W77" s="16">
@@ -14162,18 +14165,18 @@
     </row>
     <row r="78" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B78" s="53"/>
       <c r="C78" s="16"/>
       <c r="D78" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F78" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16">
@@ -14215,7 +14218,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="V78" s="16">
-        <f>ROUNDUP(U78,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W78" s="16">
@@ -14243,18 +14246,18 @@
     </row>
     <row r="79" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B79" s="53"/>
       <c r="C79" s="16"/>
       <c r="D79" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F79" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="16">
@@ -14296,7 +14299,7 @@
         <v>3.32</v>
       </c>
       <c r="V79" s="16">
-        <f>ROUNDUP(U79,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W79" s="16">
@@ -14324,18 +14327,18 @@
     </row>
     <row r="80" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B80" s="53"/>
       <c r="C80" s="16"/>
       <c r="D80" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F80" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16">
@@ -14377,7 +14380,7 @@
         <v>3.32</v>
       </c>
       <c r="V80" s="16">
-        <f>ROUNDUP(U80,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="W80" s="16">
@@ -14405,18 +14408,18 @@
     </row>
     <row r="81" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B81" s="53"/>
       <c r="C81" s="16"/>
       <c r="D81" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F81" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="16">
@@ -14458,7 +14461,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V81" s="16">
-        <f>ROUNDUP(U81,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W81" s="16">
@@ -14486,18 +14489,18 @@
     </row>
     <row r="82" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B82" s="53"/>
       <c r="C82" s="16"/>
       <c r="D82" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F82" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16">
@@ -14539,7 +14542,7 @@
         <v>1.8</v>
       </c>
       <c r="V82" s="16">
-        <f>ROUNDUP(U82,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="W82" s="16">
@@ -14567,18 +14570,18 @@
     </row>
     <row r="83" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B83" s="53"/>
       <c r="C83" s="16"/>
       <c r="D83" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F83" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="16">
@@ -14620,7 +14623,7 @@
         <v>0.65</v>
       </c>
       <c r="V83" s="16">
-        <f>ROUNDUP(U83,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W83" s="16">
@@ -14648,18 +14651,18 @@
     </row>
     <row r="84" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B84" s="53"/>
       <c r="C84" s="16"/>
       <c r="D84" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F84" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16">
@@ -14701,7 +14704,7 @@
         <v>0.65</v>
       </c>
       <c r="V84" s="16">
-        <f>ROUNDUP(U84,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W84" s="16">
@@ -14729,18 +14732,18 @@
     </row>
     <row r="85" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85" s="53"/>
       <c r="C85" s="16"/>
       <c r="D85" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F85" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="16">
@@ -14782,7 +14785,7 @@
         <v>0.65</v>
       </c>
       <c r="V85" s="16">
-        <f>ROUNDUP(U85,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W85" s="16">
@@ -14810,18 +14813,18 @@
     </row>
     <row r="86" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B86" s="53"/>
       <c r="C86" s="16"/>
       <c r="D86" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F86" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16">
@@ -14863,7 +14866,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V86" s="16">
-        <f>ROUNDUP(U86,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W86" s="16">
@@ -14891,18 +14894,18 @@
     </row>
     <row r="87" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" s="53"/>
       <c r="C87" s="16"/>
       <c r="D87" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F87" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16">
@@ -14944,7 +14947,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V87" s="16">
-        <f>ROUNDUP(U87,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W87" s="16">
@@ -14972,18 +14975,18 @@
     </row>
     <row r="88" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="53"/>
       <c r="C88" s="16"/>
       <c r="D88" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F88" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16">
@@ -15025,7 +15028,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V88" s="16">
-        <f>ROUNDUP(U88,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W88" s="16">
@@ -15053,18 +15056,18 @@
     </row>
     <row r="89" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="53"/>
       <c r="C89" s="16"/>
       <c r="D89" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F89" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16">
@@ -15080,11 +15083,11 @@
       </c>
       <c r="K89" s="17">
         <f>SUMIFS(VENTAS[Cantidad],VENTAS[Código del producto Vendido],STOCK[[#This Row],[Code]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="17">
         <f>STOCK[[#This Row],[Entradas]]-STOCK[[#This Row],[Salidas]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="16">
         <f>STOCK[[#This Row],[Precio Final]]*10%</f>
@@ -15106,7 +15109,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V89" s="16">
-        <f>ROUNDUP(U89,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W89" s="16">
@@ -15118,7 +15121,7 @@
       </c>
       <c r="Y89" s="16">
         <f>STOCK[[#This Row],[Ganancia Unitaria]]*STOCK[[#This Row],[Salidas]]</f>
-        <v>0</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="Z89" s="57"/>
       <c r="AA89" s="16"/>
@@ -15128,24 +15131,24 @@
       </c>
       <c r="AC89" s="16">
         <f>STOCK[[#This Row],[Stock Actual]]*STOCK[[#This Row],[Costo total]]</f>
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="16"/>
     </row>
     <row r="90" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B90" s="53"/>
       <c r="C90" s="16"/>
       <c r="D90" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F90" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="16">
@@ -15187,7 +15190,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="V90" s="16">
-        <f>ROUNDUP(U90,0)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="W90" s="16">
@@ -15215,20 +15218,20 @@
     </row>
     <row r="91" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" s="53"/>
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16">
@@ -15298,20 +15301,20 @@
     </row>
     <row r="92" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B92" s="53"/>
       <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16">
@@ -15381,20 +15384,20 @@
     </row>
     <row r="93" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="53"/>
       <c r="C93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16">
@@ -15464,20 +15467,20 @@
     </row>
     <row r="94" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B94" s="53"/>
       <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F94" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="16">
@@ -15547,20 +15550,20 @@
     </row>
     <row r="95" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B95" s="53"/>
       <c r="C95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F95" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16">
@@ -15630,20 +15633,20 @@
     </row>
     <row r="96" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" s="53"/>
       <c r="C96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D96" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="55" t="s">
         <v>123</v>
-      </c>
-      <c r="F96" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16">
@@ -15713,20 +15716,20 @@
     </row>
     <row r="97" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B97" s="53"/>
       <c r="C97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D97" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="16">
@@ -15796,20 +15799,20 @@
     </row>
     <row r="98" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B98" s="53"/>
       <c r="C98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D98" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G98" s="16"/>
       <c r="H98" s="16">
@@ -15878,20 +15881,20 @@
     </row>
     <row r="99" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="49"/>
       <c r="C99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F99" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H99" s="4">
         <f>STOCK[[#This Row],[Precio Final]]</f>
@@ -15954,20 +15957,20 @@
     </row>
     <row r="100" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100" s="53"/>
       <c r="C100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F100" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16">
@@ -16037,20 +16040,20 @@
     </row>
     <row r="101" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B101" s="53"/>
       <c r="C101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F101" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="16">
@@ -16120,20 +16123,20 @@
     </row>
     <row r="102" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B102" s="53"/>
       <c r="C102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D102" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G102" s="16"/>
       <c r="H102" s="16">
@@ -16203,20 +16206,20 @@
     </row>
     <row r="103" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B103" s="53"/>
       <c r="C103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F103" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="16">
@@ -16286,20 +16289,20 @@
     </row>
     <row r="104" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B104" s="53"/>
       <c r="C104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F104" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="16">
@@ -16369,20 +16372,20 @@
     </row>
     <row r="105" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105" s="53"/>
       <c r="C105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D105" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F105" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="16">
@@ -16452,20 +16455,20 @@
     </row>
     <row r="106" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="53"/>
       <c r="C106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D106" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F106" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G106" s="16"/>
       <c r="H106" s="16">
@@ -16535,23 +16538,23 @@
     </row>
     <row r="107" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H107" s="4">
         <f>STOCK[[#This Row],[Precio Final]]</f>
@@ -16624,20 +16627,20 @@
     </row>
     <row r="108" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B108" s="49"/>
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E108" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H108" s="4">
         <f>STOCK[[#This Row],[Precio Final]]</f>
@@ -16700,20 +16703,20 @@
     </row>
     <row r="109" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B109" s="53"/>
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F109" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="16">
@@ -16783,20 +16786,20 @@
     </row>
     <row r="110" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B110" s="53"/>
       <c r="C110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D110" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F110" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G110" s="16"/>
       <c r="H110" s="16">
@@ -16866,20 +16869,20 @@
     </row>
     <row r="111" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B111" s="53"/>
       <c r="C111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D111" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16">
@@ -16949,20 +16952,20 @@
     </row>
     <row r="112" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112" s="53"/>
       <c r="C112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D112" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16">
@@ -17032,20 +17035,20 @@
     </row>
     <row r="113" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B113" s="53"/>
       <c r="C113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="16">
@@ -17115,20 +17118,20 @@
     </row>
     <row r="114" spans="1:30" s="4" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="53"/>
       <c r="C114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G114" s="16"/>
       <c r="H114" s="16">
@@ -17198,75 +17201,75 @@
     </row>
     <row r="115" spans="1:30" s="4" customFormat="1" ht="204" customHeight="1">
       <c r="A115" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="E115" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F115" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
       <c r="T115" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="W115" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V115" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="W115" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="X115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z115" s="11"/>
       <c r="AA115" s="10"/>
       <c r="AB115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC115" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD115" s="10"/>
     </row>
@@ -17437,10 +17440,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D3FADA-4DDC-0348-B59F-50C97DE97C28}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="4"/>
@@ -17460,14 +17463,14 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" customHeight="1">
       <c r="A1" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
       <c r="G1" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="59"/>
       <c r="I1" s="27"/>
@@ -17479,16 +17482,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="E2" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>18</v>
@@ -17500,92 +17503,176 @@
         <v>19</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
       <c r="A3" s="35">
-        <v>45017</v>
+        <v>45573</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="36" t="s">
+        <v>264</v>
+      </c>
       <c r="E3" s="36" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F3" s="36" t="str">
         <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],5,FALSE),"-")</f>
-        <v>-</v>
+        <v>Conjunto disfraz de Monja</v>
       </c>
       <c r="G3" s="37">
         <v>1</v>
       </c>
       <c r="H3" s="38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3" s="38">
         <f>VENTAS[[#This Row],[Cantidad]]*VENTAS[[#This Row],[Precio Venta]]</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3" s="38">
         <f>IF(VENTAS[[#This Row],[Nombre del Gestor]]&gt;1,  VENTAS[[#This Row],[Total]]*10%, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="38">
         <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],16,FALSE)*VENTAS[[#This Row],[Cantidad]] + VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],19,FALSE)*VENTAS[[#This Row],[Cantidad]],VENTAS[[#This Row],[Total]])</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L3" s="38">
         <f>VENTAS[[#This Row],[Total]]-VENTAS[[#This Row],[Comisión 10%]]-VENTAS[[#This Row],[Costo SIN Comision]]</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="39"/>
     </row>
-    <row r="4" spans="1:14" ht="142" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="44" t="s">
+    <row r="4" spans="1:14" ht="20" customHeight="1">
+      <c r="A4" s="35">
+        <v>45566</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="36" t="str">
+        <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],5,FALSE),"-")</f>
+        <v>Antifaz de conejo sexy</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38">
+        <v>8</v>
+      </c>
+      <c r="I4" s="38">
+        <f>VENTAS[[#This Row],[Cantidad]]*VENTAS[[#This Row],[Precio Venta]]</f>
+        <v>8</v>
+      </c>
+      <c r="J4" s="38">
+        <f>IF(VENTAS[[#This Row],[Nombre del Gestor]]&gt;1,  VENTAS[[#This Row],[Total]]*10%, 0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="38">
+        <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],16,FALSE)*VENTAS[[#This Row],[Cantidad]] + VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],19,FALSE)*VENTAS[[#This Row],[Cantidad]],VENTAS[[#This Row],[Total]])</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="38">
+        <f>VENTAS[[#This Row],[Total]]-VENTAS[[#This Row],[Comisión 10%]]-VENTAS[[#This Row],[Costo SIN Comision]]</f>
+        <v>7.2</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" ht="20" customHeight="1">
+      <c r="A5" s="35">
+        <v>45566</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],5,FALSE),"-")</f>
+        <v>Pullover naranja calabaza</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>12</v>
+      </c>
+      <c r="I5" s="38">
+        <f>VENTAS[[#This Row],[Cantidad]]*VENTAS[[#This Row],[Precio Venta]]</f>
+        <v>12</v>
+      </c>
+      <c r="J5" s="38">
+        <f>IF(VENTAS[[#This Row],[Nombre del Gestor]]&gt;1,  VENTAS[[#This Row],[Total]]*10%, 0)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K5" s="38">
+        <f>IFERROR(VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],16,FALSE)*VENTAS[[#This Row],[Cantidad]] + VLOOKUP(VENTAS[[#This Row],[Código del producto Vendido]],STOCK[],19,FALSE)*VENTAS[[#This Row],[Cantidad]],VENTAS[[#This Row],[Total]])</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
+        <f>VENTAS[[#This Row],[Total]]-VENTAS[[#This Row],[Comisión 10%]]-VENTAS[[#This Row],[Costo SIN Comision]]</f>
+        <v>10.8</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="39"/>
+    </row>
+    <row r="6" spans="1:14" ht="142" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="F6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="45"/>
+      <c r="I6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17599,12 +17686,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{529640F7-0B79-7049-AB46-225D39590AAF}">
           <x14:formula1>
             <xm:f>STOCK!$A$2:$A$999498</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>E3:E5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
